--- a/docs/UAT PLUTOKITA (Jawaban).xlsx
+++ b/docs/UAT PLUTOKITA (Jawaban).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafli\Documents\projects\plutokita\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252BBC5D-AB46-4662-AC2D-C4284B1E04B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6610DD9A-2F65-4098-BFA8-CEEBECE81864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Timestamp</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>I Komang Setia Buana, M.T.</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>UAT Score</t>
   </si>
 </sst>
 </file>
@@ -102,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -115,6 +130,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,14 +154,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,11 +405,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -370,7 +417,7 @@
     <col min="1" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45315.734094803236</v>
       </c>
@@ -428,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45315.734328981482</v>
       </c>
@@ -457,7 +504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45315.734698460648</v>
       </c>
@@ -486,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45315.734883472222</v>
       </c>
@@ -515,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45315.735050937496</v>
       </c>
@@ -544,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45315.735261689813</v>
       </c>
@@ -573,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45315.735396307871</v>
       </c>
@@ -602,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45315.735569965276</v>
       </c>
@@ -631,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45315.735813460647</v>
       </c>
@@ -660,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45315.735991620371</v>
       </c>
@@ -686,6 +733,35 @@
         <v>5</v>
       </c>
       <c r="I11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>45324.575300925928</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5">
         <v>5</v>
       </c>
     </row>
@@ -694,8 +770,41 @@
         <v>19</v>
       </c>
       <c r="E16">
-        <f>SUM(C2:I11)</f>
-        <v>334</v>
+        <f>SUM(C2:I12)</f>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <f>E16/(E17*E18*E19)</f>
+        <v>0.95324675324675323</v>
       </c>
     </row>
   </sheetData>
